--- a/NA_tv.xlsx
+++ b/NA_tv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,17 +501,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>overview</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>30478</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>first_air_date</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -521,7 +521,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>last_air_date</t>
+          <t>first_air_date</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -531,7 +531,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>in_production</t>
+          <t>last_air_date</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -541,7 +541,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>popularity</t>
+          <t>homepage</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -551,7 +551,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>in_production</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -561,17 +561,17 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>original_name</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>networks</t>
+          <t>popularity</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -581,17 +581,17 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>origin_country</t>
+          <t>type</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>episode_run_time</t>
+          <t>status</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -601,17 +601,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>genres_Crime</t>
+          <t>languages</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>20258</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>genres_Drama</t>
+          <t>networks</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -621,37 +621,37 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>genres_Sci-Fi &amp; Fantasy</t>
+          <t>origin_country</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>10297</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>genres_Mystery</t>
+          <t>spoken_languages</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>20833</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>genres_Action &amp; Adventure</t>
+          <t>production_countries</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>29583</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>genres_Comedy</t>
+          <t>episode_run_time</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -661,7 +661,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>genres_Animation</t>
+          <t>genres_Crime</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -671,7 +671,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>genres_Western</t>
+          <t>genres_Drama</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -681,7 +681,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>genres_Family</t>
+          <t>genres_Sci-Fi &amp; Fantasy</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -691,7 +691,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>genres_Kids</t>
+          <t>genres_Mystery</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -701,7 +701,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>genres_Reality</t>
+          <t>genres_Action &amp; Adventure</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -711,7 +711,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>genres_Documentary</t>
+          <t>genres_Comedy</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -721,7 +721,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>genres_War &amp; Politics</t>
+          <t>genres_Animation</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -731,7 +731,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>genres_Soap</t>
+          <t>genres_Western</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -741,7 +741,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>genres_Romance</t>
+          <t>genres_Family</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -751,7 +751,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>genres_History</t>
+          <t>genres_Kids</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -761,7 +761,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>genres_UnKnown</t>
+          <t>genres_Reality</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -771,7 +771,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>genres_Talk</t>
+          <t>genres_Documentary</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -781,7 +781,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>genres_News</t>
+          <t>genres_War &amp; Politics</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -791,10 +791,70 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
+          <t>genres_Soap</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>genres_Romance</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>genres_History</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>genres_UnKnown</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>genres_Talk</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>genres_News</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
           <t>genres_Musical</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B43" t="n">
         <v>0</v>
       </c>
     </row>
